--- a/data/input/employee_absence_data_15.xlsx
+++ b/data/input/employee_absence_data_15.xlsx
@@ -464,132 +464,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14756</v>
+        <v>14211</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olivia Pimenta</t>
+          <t>Alexia Guerra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45084</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>5502.31</v>
+        <v>2548.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16418</v>
+        <v>16762</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Josué Viana</t>
+          <t>Bianca Pereira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45106</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>4556.24</v>
+        <v>7011.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19991</v>
+        <v>4457</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sr. Matheus Novais</t>
+          <t>Fernanda Vieira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45085</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>10147.79</v>
+        <v>3495.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>51160</v>
+        <v>18358</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anna Liz Caldeira</t>
+          <t>Dra. Isabela Guerra</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>3307.5</v>
+        <v>3431.89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>28845</v>
+        <v>38313</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Srta. Bella Barbosa</t>
+          <t>Isabella da Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,27 +598,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>5435.45</v>
+        <v>6622.67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67653</v>
+        <v>11635</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gustavo Oliveira</t>
+          <t>Sofia Araújo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -630,126 +630,126 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45100</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>6209.03</v>
+        <v>7574.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69996</v>
+        <v>65365</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Brayan Sá</t>
+          <t>Bárbara Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45085</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>10476.29</v>
+        <v>8591.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1580</v>
+        <v>92535</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Anna Liz Garcia</t>
+          <t>Rafaela Siqueira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45099</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>11375.19</v>
+        <v>7977.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29958</v>
+        <v>10235</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Beatriz Cavalcanti</t>
+          <t>Sr. Levi Araújo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45094</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>5141.34</v>
+        <v>7675.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18934</v>
+        <v>40397</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Josué Andrade</t>
+          <t>Ravi Lucca da Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>8750.700000000001</v>
+        <v>9314.08</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_15.xlsx
+++ b/data/input/employee_absence_data_15.xlsx
@@ -464,292 +464,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14211</v>
+        <v>34957</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexia Guerra</t>
+          <t>Lucas Moreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>2548.96</v>
+        <v>3750.81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16762</v>
+        <v>65256</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bianca Pereira</t>
+          <t>Alícia Pacheco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45079</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>7011.1</v>
+        <v>5854.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4457</v>
+        <v>58745</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fernanda Vieira</t>
+          <t>Dr. Henrique Montenegro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45080</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>3495.65</v>
+        <v>2041.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18358</v>
+        <v>6782</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dra. Isabela Guerra</t>
+          <t>Samuel Gomes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>3431.89</v>
+        <v>9437.139999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38313</v>
+        <v>39041</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isabella da Costa</t>
+          <t>Julia Martins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45081</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>6622.67</v>
+        <v>6212.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11635</v>
+        <v>38566</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sofia Araújo</t>
+          <t>Gael Novaes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>7574.52</v>
+        <v>7976.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65365</v>
+        <v>87888</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bárbara Rocha</t>
+          <t>Yuri da Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45080</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>8591.9</v>
+        <v>6314.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>92535</v>
+        <v>91613</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rafaela Siqueira</t>
+          <t>Enzo Moura</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45091</v>
+        <v>45083</v>
       </c>
       <c r="G9" t="n">
-        <v>7977.55</v>
+        <v>4044.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10235</v>
+        <v>15378</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Levi Araújo</t>
+          <t>Ravi Lucca Cassiano</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45096</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>7675.25</v>
+        <v>9880.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40397</v>
+        <v>87327</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ravi Lucca da Costa</t>
+          <t>Antônio da Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45105</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>9314.08</v>
+        <v>2038.75</v>
       </c>
     </row>
   </sheetData>
